--- a/Documentos/Diagrama de Gantt.xlsx
+++ b/Documentos/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BDE1B-1E4A-4017-8EF5-1D955A175506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26E8F8-B540-49A3-A6DF-9BF81733E15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Nombre actividad</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Eliminar imágenes</t>
   </si>
   <si>
-    <t>Listado de tipos de comida</t>
-  </si>
-  <si>
     <t>Sección de comentarios</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Puntuación de restaurante</t>
   </si>
   <si>
-    <t>Comentario y puntuación de restaurante</t>
-  </si>
-  <si>
-    <t>Creación de opinión</t>
-  </si>
-  <si>
     <t>Historial de reservas</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>RT-07</t>
   </si>
   <si>
-    <t>RT-08</t>
-  </si>
-  <si>
     <t>RT-09</t>
   </si>
   <si>
@@ -153,47 +141,62 @@
     <t>RT-11</t>
   </si>
   <si>
-    <t>RT-12</t>
-  </si>
-  <si>
-    <t>RT-13</t>
-  </si>
-  <si>
     <t>RT-14</t>
   </si>
   <si>
-    <t>RT-15</t>
+    <t>AD-01</t>
+  </si>
+  <si>
+    <t>AD-02</t>
+  </si>
+  <si>
+    <t>AD-03</t>
+  </si>
+  <si>
+    <t>AD-04</t>
+  </si>
+  <si>
+    <t>AD-05</t>
+  </si>
+  <si>
+    <t>AD-06</t>
+  </si>
+  <si>
+    <t>AD-11</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sección de puntuación</t>
+  </si>
+  <si>
+    <t>RT-17</t>
   </si>
   <si>
     <t>RT-16</t>
-  </si>
-  <si>
-    <t>AD-01</t>
-  </si>
-  <si>
-    <t>AD-02</t>
-  </si>
-  <si>
-    <t>AD-03</t>
-  </si>
-  <si>
-    <t>AD-04</t>
-  </si>
-  <si>
-    <t>AD-05</t>
-  </si>
-  <si>
-    <t>AD-06</t>
-  </si>
-  <si>
-    <t>AD-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +238,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,15 +361,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +404,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,8 +457,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>Diagrama de Gantt Resvit</a:t>
+              <a:t>Diagrama de Gantt</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> - Módulo restaurante</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -450,9 +516,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$25</c:f>
+              <c:f>Hoja1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Identificación de ubicación</c:v>
                 </c:pt>
@@ -475,51 +541,42 @@
                   <c:v>Eliminar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Listado de tipos de comida</c:v>
+                  <c:v>Sección de comentarios</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sección de comentarios</c:v>
+                  <c:v>Comentario de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Comentario de restaurante</c:v>
+                  <c:v>Sección de puntuación</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Comentario y puntuación de restaurante</c:v>
+                  <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Creación de opinión</c:v>
+                  <c:v>Agregar mesas</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Historial de reservas</c:v>
+                  <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Puntuación de restaurante</c:v>
+                  <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Clasificación de usuarios</c:v>
+                  <c:v>Vista usuarios-administrador</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Vista usuario-comensal</c:v>
+                  <c:v>Creación de usuarios restaurante</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Vista usuario-restaurante</c:v>
+                  <c:v>Creación de usuarios administrador</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Vista usuarios-administrador</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
@@ -527,78 +584,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$25</c:f>
+              <c:f>Hoja1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>43712</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43712</c:v>
+                  <c:v>43733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43730</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43730</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43730</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43730</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43730</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43730</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43751</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43751</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43751</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43751</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43730</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43712</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43712</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43712</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43712</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43712</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43712</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43712</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,10 +662,16 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -628,10 +682,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -647,10 +707,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -666,10 +732,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -685,10 +757,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -704,10 +782,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -723,10 +807,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -742,10 +832,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -761,10 +857,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -780,10 +882,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -799,10 +907,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -818,10 +932,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -837,10 +957,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -856,10 +982,16 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -869,68 +1001,11 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$25</c:f>
+              <c:f>Hoja1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Identificación de ubicación</c:v>
                 </c:pt>
@@ -953,51 +1028,42 @@
                   <c:v>Eliminar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Listado de tipos de comida</c:v>
+                  <c:v>Sección de comentarios</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Sección de comentarios</c:v>
+                  <c:v>Comentario de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Comentario de restaurante</c:v>
+                  <c:v>Sección de puntuación</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Comentario y puntuación de restaurante</c:v>
+                  <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Creación de opinión</c:v>
+                  <c:v>Agregar mesas</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Historial de reservas</c:v>
+                  <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Puntuación de restaurante</c:v>
+                  <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Clasificación de usuarios</c:v>
+                  <c:v>Vista usuarios-administrador</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Vista usuario-comensal</c:v>
+                  <c:v>Creación de usuarios restaurante</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Vista usuario-restaurante</c:v>
+                  <c:v>Creación de usuarios administrador</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Vista usuarios-administrador</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
@@ -1005,78 +1071,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$25</c:f>
+              <c:f>Hoja1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,8 +1212,8 @@
         <c:axId val="913089535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43783"/>
-          <c:min val="43712"/>
+          <c:max val="43795"/>
+          <c:min val="43719"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1825,7 +1882,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2119,11 +2176,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
@@ -2132,462 +2189,432 @@
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D3" s="8">
         <f>E3-C3</f>
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="20">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D25" si="0">E4-C4</f>
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="16">
+        <v>43733</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:D22" si="0">E4-C4</f>
+        <v>13</v>
+      </c>
+      <c r="E4" s="16">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E10" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43761</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="18">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43719</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="12">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C19" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C10" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E19" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E16" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>43751</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E17" s="2">
-        <v>43778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43730</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E18" s="2">
-        <v>43751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E20" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E23" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E24" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43712</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E25" s="2">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Documentos/Diagrama de Gantt.xlsx
+++ b/Documentos/Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26E8F8-B540-49A3-A6DF-9BF81733E15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478EB92-B2D2-4829-BC4A-72069F8D7DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="3516" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Nombre actividad</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Fin</t>
   </si>
   <si>
-    <t>Identificación de ubicación</t>
-  </si>
-  <si>
-    <t>Listado de ciudades</t>
-  </si>
-  <si>
-    <t>Listado de restaurantes</t>
-  </si>
-  <si>
     <t>Visualizar información restaurante</t>
   </si>
   <si>
@@ -111,15 +102,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>RT-01</t>
-  </si>
-  <si>
-    <t>RT-02</t>
-  </si>
-  <si>
-    <t>RT-03</t>
-  </si>
-  <si>
     <t>RT-04</t>
   </si>
   <si>
@@ -190,6 +172,12 @@
   </si>
   <si>
     <t>RT-16</t>
+  </si>
+  <si>
+    <t>RT-18</t>
+  </si>
+  <si>
+    <t>Visualizar restaurante</t>
   </si>
 </sst>
 </file>
@@ -361,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -377,12 +365,9 @@
     <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -516,67 +501,61 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$22</c:f>
+              <c:f>Hoja1!$B$3:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Identificación de ubicación</c:v>
+                  <c:v>Visualizar información restaurante</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Listado de ciudades</c:v>
+                  <c:v>Modificar información </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Listado de restaurantes</c:v>
+                  <c:v>Añadir imágenes</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar información restaurante</c:v>
+                  <c:v>Eliminar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Modificar información </c:v>
+                  <c:v>Sección de comentarios</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Añadir imágenes</c:v>
+                  <c:v>Comentario de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Eliminar imágenes</c:v>
+                  <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Sección de comentarios</c:v>
+                  <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Comentario de restaurante</c:v>
+                  <c:v>Agregar mesas</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Sección de puntuación</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Puntuación de restaurante</c:v>
+                  <c:v>Visualizar restaurante</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Historial de reservas</c:v>
+                  <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Clasificación de usuarios</c:v>
+                  <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Vista usuario-comensal</c:v>
+                  <c:v>Vista usuarios-administrador</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Vista usuario-restaurante</c:v>
+                  <c:v>Creación de usuarios restaurante</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Vista usuarios-administrador</c:v>
+                  <c:v>Creación de usuarios administrador</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
@@ -584,33 +563,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$22</c:f>
+              <c:f>Hoja1!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43733</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43761</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43747</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43747</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43747</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43761</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43761</c:v>
@@ -622,13 +601,13 @@
                   <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>43761</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>43719</c:v>
+                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43775</c:v>
@@ -640,12 +619,6 @@
                   <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
@@ -926,144 +899,63 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                    <a:alpha val="96000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                    <a:alpha val="96000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                    <a:alpha val="96000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-41FC-4A69-BA33-0ABE0755F329}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$22</c:f>
+              <c:f>Hoja1!$B$3:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>Identificación de ubicación</c:v>
+                  <c:v>Visualizar información restaurante</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Listado de ciudades</c:v>
+                  <c:v>Modificar información </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Listado de restaurantes</c:v>
+                  <c:v>Añadir imágenes</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Visualizar información restaurante</c:v>
+                  <c:v>Eliminar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Modificar información </c:v>
+                  <c:v>Sección de comentarios</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Añadir imágenes</c:v>
+                  <c:v>Comentario de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Eliminar imágenes</c:v>
+                  <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Sección de comentarios</c:v>
+                  <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Comentario de restaurante</c:v>
+                  <c:v>Agregar mesas</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Sección de puntuación</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Puntuación de restaurante</c:v>
+                  <c:v>Visualizar restaurante</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Historial de reservas</c:v>
+                  <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Clasificación de usuarios</c:v>
+                  <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Vista usuario-comensal</c:v>
+                  <c:v>Vista usuarios-administrador</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Vista usuario-restaurante</c:v>
+                  <c:v>Creación de usuarios restaurante</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Vista usuarios-administrador</c:v>
+                  <c:v>Creación de usuarios administrador</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
@@ -1071,10 +963,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$22</c:f>
+              <c:f>Hoja1!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1127,12 +1019,6 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -1882,7 +1768,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2174,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2190,32 +2076,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2224,52 +2110,52 @@
         <v>43747</v>
       </c>
       <c r="D3" s="8">
-        <f>E3-C3</f>
+        <f t="shared" ref="D3:D20" si="0">E3-C3</f>
         <v>13</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="7">
         <v>43760</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
-        <v>43733</v>
-      </c>
-      <c r="D4" s="17">
-        <f t="shared" ref="D4:D22" si="0">E4-C4</f>
+      <c r="C4" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E4" s="16">
-        <v>43746</v>
+      <c r="E4" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E5" s="18">
-        <v>43774</v>
+      <c r="E5" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -2287,190 +2173,190 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E7" s="7">
-        <v>43760</v>
+      <c r="E7" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E8" s="7">
-        <v>43760</v>
+      <c r="E8" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D9" s="17">
+        <f>E9-C9</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="16">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D10" s="10">
+        <f>E10-C10</f>
+        <v>13</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D11" s="17">
+        <f>E11-C11</f>
+        <v>13</v>
+      </c>
+      <c r="E11" s="16">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D12" s="17">
+        <f>E12-C12</f>
+        <v>13</v>
+      </c>
+      <c r="E12" s="16">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D13" s="17">
+        <f>E13-C13</f>
+        <v>13</v>
+      </c>
+      <c r="E13" s="16">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43719</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E9" s="7">
-        <v>43760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="E14" s="12">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E10" s="18">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="E15" s="9">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E11" s="18">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D12" s="19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E12" s="18">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D13" s="19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E13" s="18">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="E16" s="9">
         <v>43788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="18">
-        <v>43761</v>
-      </c>
-      <c r="D15" s="19">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E15" s="18">
-        <v>43774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="12">
-        <v>43719</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
-        <v>43732</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="9">
         <v>43775</v>
@@ -2485,10 +2371,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9">
         <v>43775</v>
@@ -2503,10 +2389,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="9">
         <v>43775</v>
@@ -2521,10 +2407,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="9">
         <v>43775</v>
@@ -2537,83 +2423,47 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="9">
-        <v>43788</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E22" s="9">
-        <v>43788</v>
+      <c r="B22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43795</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2">
-        <v>43719</v>
-      </c>
+      <c r="B24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>43795</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>49</v>
+      <c r="B27" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Diagrama de Gantt.xlsx
+++ b/Documentos/Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478EB92-B2D2-4829-BC4A-72069F8D7DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E2920-0D51-403E-A8E5-C33DDE1E7120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3516" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Nombre actividad</t>
   </si>
@@ -87,18 +87,6 @@
     <t>Vista usuario-restaurante</t>
   </si>
   <si>
-    <t>Vista usuarios-administrador</t>
-  </si>
-  <si>
-    <t>Creación de usuarios restaurante</t>
-  </si>
-  <si>
-    <t>Creación de usuarios administrador</t>
-  </si>
-  <si>
-    <t>Perfil usuario-admin</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -135,18 +123,6 @@
     <t>AD-03</t>
   </si>
   <si>
-    <t>AD-04</t>
-  </si>
-  <si>
-    <t>AD-05</t>
-  </si>
-  <si>
-    <t>AD-06</t>
-  </si>
-  <si>
-    <t>AD-11</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -178,6 +154,24 @@
   </si>
   <si>
     <t>Visualizar restaurante</t>
+  </si>
+  <si>
+    <t>RT-19</t>
+  </si>
+  <si>
+    <t>Visualizar imágenes</t>
+  </si>
+  <si>
+    <t>RT-02</t>
+  </si>
+  <si>
+    <t>RT-03</t>
+  </si>
+  <si>
+    <t>Listado de ciudades</t>
+  </si>
+  <si>
+    <t>Listado de restaurantes</t>
   </si>
 </sst>
 </file>
@@ -349,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -382,6 +376,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,124 +498,118 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$20</c:f>
+              <c:f>Hoja1!$B$3:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>Listado de ciudades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Listado de restaurantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Visualizar información restaurante</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Modificar información </c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Añadir imágenes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Eliminar imágenes</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Sección de comentarios</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Comentario de restaurante</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Historial de reservas</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Agregar mesas</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Sección de puntuación</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Visualizar restaurante</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>Visualizar imágenes</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>Vista usuario-restaurante</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Vista usuarios-administrador</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$20</c:f>
+              <c:f>Hoja1!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43747</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43761</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>43775</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>43761</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>43761</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>43761</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>43719</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43775</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
@@ -649,56 +640,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                    <a:alpha val="96000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A249-4C75-B218-09070E7BB320}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                    <a:alpha val="96000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-A249-4C75-B218-09070E7BB320}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
@@ -899,74 +840,111 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$20</c:f>
+              <c:f>Hoja1!$B$3:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>Listado de ciudades</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Listado de restaurantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Visualizar información restaurante</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Modificar información </c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Añadir imágenes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Eliminar imágenes</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Sección de comentarios</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Comentario de restaurante</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Puntuación de restaurante</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Historial de reservas</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Agregar mesas</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Sección de puntuación</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Visualizar restaurante</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>Visualizar imágenes</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>Vista usuario-restaurante</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Vista usuarios-administrador</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Creación de usuarios restaurante</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Creación de usuarios administrador</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Perfil usuario-admin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$20</c:f>
+              <c:f>Hoja1!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1016,9 +994,6 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
@@ -1098,7 +1073,7 @@
         <c:axId val="913089535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43795"/>
+          <c:max val="43788"/>
           <c:min val="43719"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1768,7 +1743,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2060,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,7 +2052,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -2101,124 +2076,124 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D20" si="0">E3-C3</f>
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="24">
+        <v>43719</v>
+      </c>
+      <c r="D3" s="11">
+        <f>E3-C3</f>
         <v>13</v>
       </c>
-      <c r="E3" s="7">
-        <v>43760</v>
+      <c r="E3" s="24">
+        <v>43732</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="24">
+        <v>43719</v>
+      </c>
+      <c r="D4" s="11">
+        <f>E4-C4</f>
         <v>13</v>
       </c>
-      <c r="E4" s="7">
-        <v>43760</v>
+      <c r="E4" s="24">
+        <v>43732</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25">
+        <v>43733</v>
+      </c>
+      <c r="D5" s="15">
         <v>13</v>
       </c>
-      <c r="E5" s="7">
-        <v>43760</v>
+      <c r="E5" s="25">
+        <f>C5+D5</f>
+        <v>43746</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25">
+        <v>43733</v>
+      </c>
+      <c r="D6" s="15">
         <v>13</v>
       </c>
-      <c r="E6" s="7">
-        <v>43760</v>
+      <c r="E6" s="25">
+        <f>C6+D6</f>
+        <v>43746</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:D19" si="0">E7-C7</f>
         <v>13</v>
       </c>
-      <c r="E7" s="16">
-        <v>43774</v>
+      <c r="E7" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D8" s="17">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E8" s="16">
-        <v>43774</v>
+      <c r="E8" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="16">
         <v>43761</v>
       </c>
       <c r="D9" s="17">
-        <f>E9-C9</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E9" s="16">
@@ -2227,154 +2202,154 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:D11" si="1">E10-C10</f>
         <v>13</v>
       </c>
-      <c r="C10" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D10" s="10">
-        <f>E10-C10</f>
-        <v>13</v>
-      </c>
-      <c r="E10" s="9">
-        <v>43788</v>
+      <c r="E10" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D11" s="17">
-        <f>E11-C11</f>
+        <v>25</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E11" s="16">
-        <v>43774</v>
+      <c r="E11" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D12" s="17">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D12" s="10">
         <f>E12-C12</f>
         <v>13</v>
       </c>
-      <c r="E12" s="16">
-        <v>43774</v>
+      <c r="E12" s="9">
+        <v>43788</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D13" s="17">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D13" s="10">
         <f>E13-C13</f>
         <v>13</v>
       </c>
-      <c r="E13" s="16">
-        <v>43774</v>
+      <c r="E13" s="9">
+        <v>43788</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12">
-        <v>43719</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D14" s="17">
+        <f>E14-C14</f>
         <v>13</v>
       </c>
-      <c r="E14" s="12">
-        <v>43732</v>
+      <c r="E14" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D15" s="17">
+        <f>E15-C15</f>
         <v>13</v>
       </c>
-      <c r="E15" s="9">
-        <v>43788</v>
+      <c r="E15" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D16" s="17">
+        <f>E16-C16</f>
         <v>13</v>
       </c>
-      <c r="E16" s="9">
-        <v>43788</v>
+      <c r="E16" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D17" s="10">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43719</v>
+      </c>
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E17" s="9">
-        <v>43788</v>
+      <c r="E17" s="12">
+        <v>43732</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9">
         <v>43775</v>
@@ -2389,10 +2364,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9">
         <v>43775</v>
@@ -2405,65 +2380,47 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E20" s="9">
-        <v>43788</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43719</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>38</v>
+      <c r="B22" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>43719</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>43795</v>
-      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="B24" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
-        <v>41</v>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>43</v>
+      <c r="B26" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Diagrama de Gantt.xlsx
+++ b/Documentos/Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E2920-0D51-403E-A8E5-C33DDE1E7120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD909A9D-9FCE-48AD-B73F-AB09F7F9D2CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="4212" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Nombre actividad</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Historial de reservas</t>
   </si>
   <si>
-    <t>Agregar mesas</t>
-  </si>
-  <si>
     <t>Clasificación de usuarios</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Sprint 5</t>
   </si>
   <si>
-    <t>Sprint 6</t>
-  </si>
-  <si>
     <t>Sección de puntuación</t>
   </si>
   <si>
@@ -172,6 +166,27 @@
   </si>
   <si>
     <t>Listado de restaurantes</t>
+  </si>
+  <si>
+    <t>Visualizar mesas</t>
+  </si>
+  <si>
+    <t>RT-20</t>
+  </si>
+  <si>
+    <t>RT-21</t>
+  </si>
+  <si>
+    <t>RT-22</t>
+  </si>
+  <si>
+    <t>Visualizar galería</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +257,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,12 +347,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -355,15 +403,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,9 +433,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,9 +552,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$19</c:f>
+              <c:f>Hoja1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Listado de ciudades</c:v>
                 </c:pt>
@@ -532,7 +586,7 @@
                   <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Visualizar mesas</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sección de puntuación</c:v>
@@ -544,12 +598,21 @@
                   <c:v>Visualizar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Visualizar galería</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Comentarios</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Puntuación</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
               </c:strCache>
@@ -557,10 +620,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$19</c:f>
+              <c:f>Hoja1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43719</c:v>
                 </c:pt>
@@ -568,48 +631,57 @@
                   <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43733</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43747</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43747</c:v>
+                  <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43761</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>43747</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43747</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43719</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>43775</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43761</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43761</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43761</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43719</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43775</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>43775</c:v>
                 </c:pt>
               </c:numCache>
@@ -859,6 +931,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-EDA4-4542-A461-0EE031009CD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -879,12 +956,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-EDA4-4542-A461-0EE031009CD3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$3:$B$19</c:f>
+              <c:f>Hoja1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Listado de ciudades</c:v>
                 </c:pt>
@@ -916,7 +998,7 @@
                   <c:v>Historial de reservas</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Agregar mesas</c:v>
+                  <c:v>Visualizar mesas</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Sección de puntuación</c:v>
@@ -928,12 +1010,21 @@
                   <c:v>Visualizar imágenes</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Visualizar galería</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Comentarios</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Puntuación</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Clasificación de usuarios</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>Vista usuario-comensal</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>Vista usuario-restaurante</c:v>
                 </c:pt>
               </c:strCache>
@@ -941,10 +1032,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$19</c:f>
+              <c:f>Hoja1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -995,6 +1086,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1173,7 @@
         <c:axId val="913089535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43788"/>
+          <c:max val="43782"/>
           <c:min val="43719"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1743,7 +1843,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2035,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,140 +2151,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="C3" s="19">
         <v>43719</v>
       </c>
       <c r="D3" s="11">
         <f>E3-C3</f>
         <v>13</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="19">
         <v>43732</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="C4" s="19">
         <v>43719</v>
       </c>
       <c r="D4" s="11">
         <f>E4-C4</f>
         <v>13</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="19">
         <v>43732</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25">
-        <v>43733</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="19">
+        <v>43719</v>
+      </c>
+      <c r="D5" s="11">
+        <f>E5-C5</f>
         <v>13</v>
       </c>
-      <c r="E5" s="25">
-        <f>C5+D5</f>
-        <v>43746</v>
+      <c r="E5" s="19">
+        <v>43732</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>43733</v>
       </c>
       <c r="D6" s="15">
         <v>13</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="20">
         <f>C6+D6</f>
         <v>43746</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:D19" si="0">E7-C7</f>
+      <c r="C7" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7" si="0">E7-C7</f>
         <v>13</v>
       </c>
-      <c r="E7" s="7">
-        <v>43760</v>
+      <c r="E7" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
+      <c r="C8" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" ref="D8" si="1">E8-C8</f>
         <v>13</v>
       </c>
-      <c r="E8" s="7">
-        <v>43760</v>
+      <c r="E8" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>10</v>
@@ -2193,7 +2293,7 @@
         <v>43761</v>
       </c>
       <c r="D9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:D22" si="2">E9-C9</f>
         <v>13</v>
       </c>
       <c r="E9" s="16">
@@ -2202,225 +2302,274 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" ref="D10:D11" si="1">E10-C10</f>
+      <c r="C10" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" ref="D10:D11" si="3">E10-C10</f>
         <v>13</v>
       </c>
-      <c r="E10" s="7">
-        <v>43760</v>
+      <c r="E10" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
-        <v>43747</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
+      <c r="C11" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="E11" s="7">
-        <v>43760</v>
+      <c r="E11" s="16">
+        <v>43774</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D12" s="10">
-        <f>E12-C12</f>
+      <c r="C12" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D13" si="4">E12-C12</f>
         <v>13</v>
       </c>
-      <c r="E12" s="9">
-        <v>43788</v>
+      <c r="E12" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D13" s="10">
-        <f>E13-C13</f>
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="E13" s="9">
-        <v>43788</v>
+      <c r="E13" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D14" s="17">
-        <f>E14-C14</f>
+        <v>35</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14" si="5">E14-C14</f>
         <v>13</v>
       </c>
-      <c r="E14" s="16">
-        <v>43774</v>
+      <c r="E14" s="7">
+        <v>43760</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D15" s="17">
-        <f>E15-C15</f>
+        <v>37</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43719</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" ref="D15" si="6">E15-C15</f>
         <v>13</v>
       </c>
-      <c r="E15" s="16">
-        <v>43774</v>
+      <c r="E15" s="12">
+        <v>43732</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="16">
-        <v>43761</v>
-      </c>
-      <c r="D16" s="17">
-        <f>E16-C16</f>
+        <v>39</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20">
+        <v>43733</v>
+      </c>
+      <c r="D16" s="15">
         <v>13</v>
       </c>
-      <c r="E16" s="16">
-        <v>43774</v>
+      <c r="E16" s="20">
+        <f>C16+D16</f>
+        <v>43746</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20">
+        <v>43733</v>
+      </c>
+      <c r="D17" s="15">
+        <v>13</v>
+      </c>
+      <c r="E17" s="20">
+        <f>C17+D17</f>
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43761</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" ref="D18" si="7">E18-C18</f>
+        <v>13</v>
+      </c>
+      <c r="E18" s="16">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43747</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19" si="8">E19-C19</f>
+        <v>13</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43719</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="12">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C21" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43775</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
         <v>43719</v>
       </c>
-      <c r="D17" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E17" s="12">
-        <v>43732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E18" s="9">
-        <v>43788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43775</v>
-      </c>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E19" s="9">
-        <v>43788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
